--- a/public/ContentDefinition.xlsx
+++ b/public/ContentDefinition.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-3120" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="-38400" yWindow="-3120" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Fields" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="87">
   <si>
     <t>Name</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Title</t>
-  </si>
-  <si>
     <t>Single line of Text</t>
   </si>
   <si>
@@ -71,18 +68,6 @@
     <t>External</t>
   </si>
   <si>
-    <t>Yes/No (check box)</t>
-  </si>
-  <si>
-    <t>Occupation</t>
-  </si>
-  <si>
-    <t>Location of residence</t>
-  </si>
-  <si>
-    <t>Casting Agency Contact</t>
-  </si>
-  <si>
     <t>Date of cast</t>
   </si>
   <si>
@@ -98,72 +83,15 @@
     <t>Agency Notes</t>
   </si>
   <si>
-    <t>Cast Types</t>
-  </si>
-  <si>
     <t>Dropdown</t>
   </si>
   <si>
-    <t>Screenings, Call-backs</t>
-  </si>
-  <si>
-    <t>Year of birth</t>
-  </si>
-  <si>
-    <t>Age group</t>
-  </si>
-  <si>
-    <t>Under 18, 18 – 24, 25 – 34, 35 – 44, 45-59, 60+</t>
-  </si>
-  <si>
-    <t>Height (cm)</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>Caucasian, African, Southeast Asian (Indo/Thai/Philippine/Vietnamese), East Asian (Chinese/Japanese/Korean), South Asian (Indian/Pakistani), Latin American Mixed Race, Others</t>
-  </si>
-  <si>
-    <t>Hair Type</t>
-  </si>
-  <si>
-    <t>Straight, Wavy, Curly, Afro curls</t>
-  </si>
-  <si>
-    <t>Hair Colour</t>
-  </si>
-  <si>
     <t>Lookup</t>
   </si>
   <si>
-    <t>Hair Length</t>
-  </si>
-  <si>
-    <t>Short, Medium, Long</t>
-  </si>
-  <si>
-    <t>Hair Weight</t>
-  </si>
-  <si>
-    <t>Thick, Medium, Fine</t>
-  </si>
-  <si>
     <t>Skin Tone</t>
   </si>
   <si>
-    <t>Skin Condition</t>
-  </si>
-  <si>
-    <t>Normal, Dry, Combination, Oily</t>
-  </si>
-  <si>
-    <t>Deo Underarm Condition</t>
-  </si>
-  <si>
-    <t>Normal, Underarm dark marks, Excess Sweatiness, Shaving Rush, Adornments</t>
-  </si>
-  <si>
     <t>Native Language Spoken</t>
   </si>
   <si>
@@ -176,60 +104,12 @@
     <t>Nationality</t>
   </si>
   <si>
-    <t>Suitability for video and photo</t>
-  </si>
-  <si>
-    <t>Passport</t>
-  </si>
-  <si>
-    <t>Children</t>
-  </si>
-  <si>
-    <t>Additional info</t>
-  </si>
-  <si>
     <t>Set to Hyperlink</t>
   </si>
   <si>
-    <t>Photo One</t>
-  </si>
-  <si>
-    <t>Photo Two</t>
-  </si>
-  <si>
-    <t>Photo Three</t>
-  </si>
-  <si>
-    <t>Photo Four</t>
-  </si>
-  <si>
-    <t>Photo Five</t>
-  </si>
-  <si>
-    <t>Video</t>
-  </si>
-  <si>
-    <t>Portfolio Item One</t>
-  </si>
-  <si>
-    <t>Portfolio Item Two</t>
-  </si>
-  <si>
-    <t>Portfolio Item Three</t>
-  </si>
-  <si>
-    <t>Portfolio Item Four</t>
-  </si>
-  <si>
-    <t>Portfolio Item Five</t>
-  </si>
-  <si>
     <t>Project Category</t>
   </si>
   <si>
-    <t>Year of launching</t>
-  </si>
-  <si>
     <t>Project Start Date</t>
   </si>
   <si>
@@ -254,12 +134,6 @@
     <t>Lookup on the Project list</t>
   </si>
   <si>
-    <t>Cast ID</t>
-  </si>
-  <si>
-    <t>Lookup on the Cast list</t>
-  </si>
-  <si>
     <t>Values</t>
   </si>
   <si>
@@ -290,27 +164,15 @@
     <t>Project</t>
   </si>
   <si>
-    <t>Cast</t>
-  </si>
-  <si>
     <t>Taxonomy</t>
   </si>
   <si>
     <t>Set to date only</t>
   </si>
   <si>
-    <t>Under 18, 18 - 24, 25 - 34, 35 - 44, 45 - 59, 60+</t>
-  </si>
-  <si>
     <t>Masterbrand, Hair, Deo, Skin Cleansing - Body Wash, Skin Cleansing - Bar, Skin Care - Hand &amp; Body, Skin Care - Facial Cleansing</t>
   </si>
   <si>
-    <t>HairColour</t>
-  </si>
-  <si>
-    <t>Lookup on the Hair Colour list where the options are defined</t>
-  </si>
-  <si>
     <t>Lookup on the Skin Tone list where the options are defined</t>
   </si>
   <si>
@@ -359,39 +221,15 @@
     <t>Header Links</t>
   </si>
   <si>
-    <t>Footer Links</t>
-  </si>
-  <si>
     <t>Projects</t>
   </si>
   <si>
     <t>Project Shortlist</t>
   </si>
   <si>
-    <t>Project Selections</t>
-  </si>
-  <si>
-    <t>Pages</t>
-  </si>
-  <si>
-    <t>Cast Additional Info</t>
-  </si>
-  <si>
-    <t>Project Additional Info</t>
-  </si>
-  <si>
-    <t>Cast Images</t>
-  </si>
-  <si>
-    <t>Cast Videos</t>
-  </si>
-  <si>
     <t>Cast Portfolios</t>
   </si>
   <si>
-    <t>System</t>
-  </si>
-  <si>
     <t>Parent Type</t>
   </si>
   <si>
@@ -431,63 +269,12 @@
     <t>Document</t>
   </si>
   <si>
-    <t>The Pages library, a feature of the Publishing Portal site collection, will hold all Publishing pages for the site.</t>
-  </si>
-  <si>
-    <t>A Document Library used to hold all files used for the Additional Info section on the Cast Bio. The files in this library are associated to a Cast Bio in the item in Cast list and rendered on the Cast Bio page via the API.</t>
-  </si>
-  <si>
-    <t>A Document Library used to hold all files used for the Additional Info section on the Project page. The files in this library are associated to a Project in the item in Project list and rendered on the Project page via the API.</t>
-  </si>
-  <si>
-    <t>An Assets Library used to hold all the image files used for the Cast Bio. The images in this library are associated to a Cast Bio in the item in Cast list and rendered on the Cast Bio page via the API.</t>
-  </si>
-  <si>
-    <t>An Assets Library used to hold all the video files used for the Cast Bio. The Videos in this library are associated to a Cast Bio in the item in Cast list and rendered on the Cast Bio page via the API.</t>
-  </si>
-  <si>
     <t>A Document Library used to hold all the portfolio files used for the Cast Bio. The documents in this library are associated to a Cast Bio in the item in Cast list and with the title and link rendered on the Cast Bio page via the API.</t>
   </si>
   <si>
     <t>Used to define and manage the links held in the Header links section.</t>
   </si>
   <si>
-    <t>Used to define and manage the links held in the Footer links section.</t>
-  </si>
-  <si>
-    <t>Used to hold the information of each Cast Bio. The information held in this list is rendered on the Cast Bio page via the API and URL parameter.</t>
-  </si>
-  <si>
-    <t>Used to hold the information of each Project. The information held in this list is rendered on the Project page via the API and URL parameter.</t>
-  </si>
-  <si>
-    <t>Used to hold information on what cast members are shortlisted for what project and under what cluster.</t>
-  </si>
-  <si>
-    <t>Used to hold information on what cast members are selected for what project and under what cluster.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Used to associate the Hair Colour cast filter options with an image thumbnail used to demonstrate the colour. Each item in the list will contain the title of the filter option and a filter to reference the relevant image, which will be held in the images library. The Cast list will contain a lookup field on this list to retrieve the information. The list contains the following items:
-• Blonde
-• Brunette
-• Dark Brown
-• Black
-• Red
-• Grey
-• Others
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Used to associate the Skin Tone cast filter options with an image thumbnail used to demonstrate the tone. Each item in the list will contain the title of the filter option and a filter to reference the relevant image, which will be held in the images library. The Cast list will contain a lookup field on this list to retrieve the information. The list contains the following items:
-• Fair
-• Light
-• Medium
-• Deep
-• Dark
-• Other
-</t>
-  </si>
-  <si>
     <t>File with all nationalities</t>
   </si>
   <si>
@@ -501,6 +288,9 @@
   </si>
   <si>
     <t>PersonAndGroup</t>
+  </si>
+  <si>
+    <t>Full Control</t>
   </si>
 </sst>
 </file>
@@ -627,7 +417,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -677,9 +467,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -696,6 +483,12 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="27">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
@@ -721,12 +514,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -966,8 +753,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table17" displayName="Table17" ref="A1:E54" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23" dataCellStyle="Normal">
-  <autoFilter ref="A1:E54"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table17" displayName="Table17" ref="A1:E21" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23" dataCellStyle="Normal">
+  <autoFilter ref="A1:E21"/>
   <sortState ref="A2:E55">
     <sortCondition ref="B1:B55"/>
   </sortState>
@@ -983,8 +770,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A1:C15" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" dataCellStyle="Normal">
-  <autoFilter ref="A1:C15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A1:C3" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" dataCellStyle="Normal">
+  <autoFilter ref="A1:C3"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Name" dataDxfId="13" dataCellStyle="Normal"/>
     <tableColumn id="2" name="Type" dataDxfId="12" dataCellStyle="Normal"/>
@@ -995,23 +782,23 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:B9" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" dataCellStyle="Normal">
-  <autoFilter ref="A1:B9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:B4" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" dataCellStyle="Normal">
+  <autoFilter ref="A1:B4"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Name" dataDxfId="6" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="Parent Type" dataDxfId="5" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Name" dataDxfId="0" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="Parent Type" dataDxfId="1" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A1:C4" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A1:C4" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:C4"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Name" dataDxfId="2"/>
-    <tableColumn id="2" name="Permission Level" dataDxfId="1"/>
-    <tableColumn id="3" name="Comments" dataDxfId="0"/>
+    <tableColumn id="1" name="Name" dataDxfId="4"/>
+    <tableColumn id="2" name="Permission Level" dataDxfId="3"/>
+    <tableColumn id="3" name="Comments" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1280,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1303,10 +1090,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -1314,730 +1101,289 @@
     </row>
     <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="19" t="s">
         <v>45</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="20" t="s">
-        <v>88</v>
+      <c r="E5" s="19" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="E8" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>30</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="E10" s="4" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="E11" s="4" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>43</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E16" s="4" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>70</v>
+      <c r="A17" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>71</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="E18" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="E19" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="4" t="s">
-        <v>52</v>
-      </c>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E36" s="4"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E54" s="4"/>
+      <c r="E21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2049,10 +1395,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2066,149 +1412,31 @@
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>122</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="192" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="18" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="176" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="18" t="s">
-        <v>146</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2221,15 +1449,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2238,65 +1466,29 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>108</v>
+      <c r="A2" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="B2" s="8"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="8"/>
+      <c r="A3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="8"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>121</v>
+      <c r="A4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2312,7 +1504,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2327,43 +1519,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
-        <v>124</v>
+      <c r="A2" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
-        <v>126</v>
+      <c r="A3" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
-        <v>129</v>
+      <c r="A4" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
